--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1429,12 +1429,12 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <f>表1[[#This Row],[原金额]]*-10%</f>
-        <v>-10</v>
+        <f>表1[[#This Row],[原金额]]*-20%</f>
+        <v>-20</v>
       </c>
       <c r="E10">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1494,9 +1494,13 @@
       <c r="C13">
         <v>-60</v>
       </c>
+      <c r="D13">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-6</v>
+      </c>
       <c r="E13">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-60</v>
+        <v>-66</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1512,9 +1516,13 @@
       <c r="C14">
         <v>-200</v>
       </c>
+      <c r="D14">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-20</v>
+      </c>
       <c r="E14">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-200</v>
+        <v>-220</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1530,9 +1538,13 @@
       <c r="C15">
         <v>-30</v>
       </c>
+      <c r="D15">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
       <c r="E15">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1551,9 +1563,13 @@
       <c r="C16">
         <v>200</v>
       </c>
+      <c r="D16">
+        <f>表1[[#This Row],[原金额]]*-10%</f>
+        <v>-20</v>
+      </c>
       <c r="E16">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1572,9 +1588,13 @@
       <c r="C17">
         <v>50</v>
       </c>
+      <c r="D17">
+        <f>表1[[#This Row],[原金额]]*-10%</f>
+        <v>-5</v>
+      </c>
       <c r="E17">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1590,9 +1610,13 @@
       <c r="C18">
         <v>-30</v>
       </c>
+      <c r="D18">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
       <c r="E18">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1608,9 +1632,13 @@
       <c r="C19">
         <v>-30</v>
       </c>
+      <c r="D19">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
       <c r="E19">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,14 @@
   </si>
   <si>
     <t>临时去学校拿学习资料，回程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆打卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,8 +931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G20" totalsRowShown="0">
-  <autoFilter ref="A2:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G25" totalsRowShown="0">
+  <autoFilter ref="A2:G25"/>
   <tableColumns count="7">
     <tableColumn id="1" name="时间" dataDxfId="0"/>
     <tableColumn id="2" name="科目"/>
@@ -1202,10 +1210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1221,7 +1229,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>6757.2000000000007</v>
+        <v>5712.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1437,7 +1445,7 @@
         <v>80</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1459,7 +1467,7 @@
         <v>-220</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1481,7 +1489,7 @@
         <v>-66</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1503,7 +1511,7 @@
         <v>-66</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1525,7 +1533,7 @@
         <v>-220</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1547,7 +1555,7 @@
         <v>-33</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>103</v>
@@ -1572,7 +1580,7 @@
         <v>180</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
         <v>102</v>
@@ -1597,7 +1605,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1619,7 +1627,7 @@
         <v>-33</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1641,7 +1649,7 @@
         <v>-33</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1654,15 +1662,117 @@
       <c r="C20">
         <v>-30</v>
       </c>
+      <c r="D20">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
       <c r="E20">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>-200</v>
+      </c>
+      <c r="D21">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-220</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>43526</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>-200</v>
+      </c>
+      <c r="D22">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-20</v>
+      </c>
+      <c r="E22">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-220</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>43527</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>-200</v>
+      </c>
+      <c r="E23">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-200</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>-6</v>
+      </c>
+      <c r="E24">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-6</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>50</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1943,8 +2053,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="51" zoomScaleNormal="85" zoomScaleSheetLayoutView="51" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,46 @@
   </si>
   <si>
     <t>记忆打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题对两道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题错一道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订正正确，合计500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两周英语计划没有批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开学前一周未写计划，第三周有计划未有批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福正课+辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟记账超过24小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题对六道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅有上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,8 +971,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G25" totalsRowShown="0">
-  <autoFilter ref="A2:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G39" totalsRowShown="0">
+  <autoFilter ref="A2:G39"/>
+  <sortState ref="A3:G37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="时间" dataDxfId="0"/>
     <tableColumn id="2" name="科目"/>
@@ -1210,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1229,7 +1272,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>5712.2000000000007</v>
+        <v>4745.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1654,49 +1697,49 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>43526</v>
+        <v>43525</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20">
-        <v>-30</v>
+        <v>-200</v>
       </c>
       <c r="D20">
         <f>表1[[#This Row],[原金额]]*10%</f>
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="E20">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-33</v>
+        <v>-220</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>43525</v>
+        <v>43526</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
-        <v>-200</v>
+        <v>-30</v>
       </c>
       <c r="D21">
         <f>表1[[#This Row],[原金额]]*10%</f>
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="E21">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>-220</v>
+        <v>-33</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1749,7 +1792,7 @@
       <c r="C24">
         <v>-6</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="50">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>-6</v>
       </c>
@@ -1767,11 +1810,276 @@
       <c r="C25">
         <v>50</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="50">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>50</v>
       </c>
       <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>43529</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>-60</v>
+      </c>
+      <c r="E26" s="50">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>43530</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27">
+        <v>-30</v>
+      </c>
+      <c r="E27" s="50">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>43531</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28">
+        <v>-60</v>
+      </c>
+      <c r="E28">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <v>-30</v>
+      </c>
+      <c r="D29">
+        <f>10%*表1[[#This Row],[原金额]]</f>
+        <v>-3</v>
+      </c>
+      <c r="E29">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-33</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>43534</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <f>-(350+90)</f>
+        <v>-440</v>
+      </c>
+      <c r="D30">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-44</v>
+      </c>
+      <c r="E30">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-484</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31">
+        <v>600</v>
+      </c>
+      <c r="E31">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>600</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>-60</v>
+      </c>
+      <c r="E32">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="E33">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>200</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>-500</v>
+      </c>
+      <c r="E34">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-500</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>43536</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35">
+        <v>-30</v>
+      </c>
+      <c r="E35">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36">
+        <v>-500</v>
+      </c>
+      <c r="E36">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-500</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>43537</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>-60</v>
+      </c>
+      <c r="E37">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38">
+        <v>-60</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39">
+        <v>-30</v>
+      </c>
+      <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2053,8 +2361,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A18" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,6 +555,14 @@
   </si>
   <si>
     <t>仅有上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周计划未批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做对9道数学题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +979,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G39" totalsRowShown="0">
-  <autoFilter ref="A2:G39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G42" totalsRowShown="0">
+  <autoFilter ref="A2:G42"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1253,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2065,6 +2073,14 @@
       <c r="C38">
         <v>-60</v>
       </c>
+      <c r="D38">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-6</v>
+      </c>
+      <c r="E38">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-66</v>
+      </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
@@ -2079,7 +2095,73 @@
       <c r="C39">
         <v>-30</v>
       </c>
+      <c r="D39">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
+      <c r="E39">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-33</v>
+      </c>
       <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40">
+        <v>-500</v>
+      </c>
+      <c r="D40">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-50</v>
+      </c>
+      <c r="E40">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-550</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>-60</v>
+      </c>
+      <c r="E41">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42">
+        <v>900</v>
+      </c>
+      <c r="E42">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>900</v>
+      </c>
+      <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#WORKSHOP\gitSync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\github-ExcelProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="记账明细" sheetId="1" r:id="rId1"/>
     <sheet name="行为记录" sheetId="2" r:id="rId2"/>
     <sheet name="科目" sheetId="3" r:id="rId3"/>
+    <sheet name="20190224" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,12 +566,124 @@
     <t>做对9道数学题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启东八下P66-67打钩作业。
+不能按时完成作业，则停止当周数学课外补习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月26日结束前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成2019年初寒假要求单词，包括高中单词List7-24；TPO25-3、TPO27-3、TPO10-3、TPO29-2、TPO9-2。
+考核方式：所有单词，任意抽取50个，45个单词通过算整体通过。通过考试以前，不安排任何托福学习。
+单个单词通过标准：考官念英文，正确默写英文拼写并至少正确写出一个主要中文意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天打卡，就打卡内容教会妈妈，则奖励200元；未教会，但打卡通过，奖励50元；未通过打卡，处罚200元。打卡是否通过，是否教会妈妈，由妈妈判定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天11点20熄灯。第二天不上学并不上班的天数除外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月24日起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">费用、收入发生当天（24小时内）需要记录。24小时以后记录为延迟记录，延迟1-7天，增加费用10%或扣除收入10%；延迟记录8-14天，增加费用20%或扣除收入20%，以此类推。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">记录时间以爸妈签字时间为准。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2月24日不能按时完成记账，则3月10日为止停止所有课外课程（托福、数学等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天账务，当天记清并获取签字，否则第二天不接送学校。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月19日起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月24日起三周
+3月5日截止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +774,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -724,7 +873,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -797,13 +946,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +1251,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,18 +1603,18 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1623,7 @@
         <v>4745.2000000000007</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43493</v>
       </c>
@@ -1330,7 +1670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43493</v>
       </c>
@@ -1354,7 +1694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43493</v>
       </c>
@@ -1379,7 +1719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43493</v>
       </c>
@@ -1403,7 +1743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43498</v>
       </c>
@@ -1428,7 +1768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43500</v>
       </c>
@@ -1452,7 +1792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43520</v>
       </c>
@@ -1477,7 +1817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43520</v>
       </c>
@@ -1499,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43521</v>
       </c>
@@ -1521,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43521</v>
       </c>
@@ -1543,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43522</v>
       </c>
@@ -1565,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -1587,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
@@ -1612,7 +1952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -1637,7 +1977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -1659,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43524</v>
       </c>
@@ -1681,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43525</v>
       </c>
@@ -1703,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43525</v>
       </c>
@@ -1725,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43526</v>
       </c>
@@ -1750,7 +2090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43526</v>
       </c>
@@ -1772,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43527</v>
       </c>
@@ -1790,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43528</v>
       </c>
@@ -1808,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43528</v>
       </c>
@@ -1826,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -1844,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -1862,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -1880,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -1902,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43534</v>
       </c>
@@ -1928,7 +2268,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43535</v>
       </c>
@@ -1946,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -1964,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -1982,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43536</v>
       </c>
@@ -2003,7 +2343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43536</v>
       </c>
@@ -2024,7 +2364,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43537</v>
       </c>
@@ -2045,7 +2385,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43537</v>
       </c>
@@ -2063,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43538</v>
       </c>
@@ -2085,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43539</v>
       </c>
@@ -2107,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43541</v>
       </c>
@@ -2129,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43542</v>
       </c>
@@ -2147,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43543</v>
       </c>
@@ -2184,13 +2524,13 @@
       <selection activeCell="G12" sqref="B7:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.06640625" customWidth="1"/>
-    <col min="7" max="8" width="9.06640625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="7" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43493</v>
       </c>
@@ -2240,7 +2580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43494</v>
       </c>
@@ -2264,7 +2604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43495</v>
       </c>
@@ -2284,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43496</v>
       </c>
@@ -2301,7 +2641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43497</v>
       </c>
@@ -2320,112 +2660,112 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43498</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43499</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43500</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43501</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43502</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43503</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43504</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43505</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43506</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43507</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43508</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43509</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43510</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43511</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43512</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43513</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43514</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43515</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43516</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43517</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43518</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43519</v>
       </c>
@@ -2447,19 +2787,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="51.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="52.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="52.25" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="44.65" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
@@ -2469,7 +2809,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="2:8" s="13" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" s="13" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
@@ -2479,8 +2819,8 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
@@ -2491,7 +2831,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
         <v>29</v>
@@ -2502,7 +2842,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="15" t="s">
         <v>30</v>
@@ -2513,7 +2853,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -2524,7 +2864,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
         <v>32</v>
@@ -2535,7 +2875,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2544,7 +2884,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
@@ -2555,7 +2895,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
@@ -2568,7 +2908,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
         <v>36</v>
@@ -2579,7 +2919,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
@@ -2592,7 +2932,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
         <v>39</v>
@@ -2603,7 +2943,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
         <v>40</v>
@@ -2614,8 +2954,8 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>41</v>
@@ -2628,7 +2968,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19" t="s">
@@ -2645,7 +2985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>45</v>
       </c>
@@ -2668,7 +3008,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
@@ -2689,7 +3029,7 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>45</v>
       </c>
@@ -2706,7 +3046,7 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
@@ -2729,7 +3069,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>61</v>
       </c>
@@ -2752,7 +3092,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>66</v>
       </c>
@@ -2775,7 +3115,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>71</v>
       </c>
@@ -2798,7 +3138,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="44" t="s">
         <v>71</v>
       </c>
@@ -2821,7 +3161,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="120.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
         <v>80</v>
       </c>
@@ -2838,10 +3178,108 @@
       <c r="F27" s="49"/>
       <c r="G27" s="49"/>
     </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="150" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="记账明细" sheetId="1" r:id="rId1"/>
-    <sheet name="行为记录" sheetId="2" r:id="rId2"/>
-    <sheet name="科目" sheetId="3" r:id="rId3"/>
-    <sheet name="20190224" sheetId="4" r:id="rId4"/>
+    <sheet name="科目" sheetId="3" r:id="rId2"/>
+    <sheet name="20190224" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,44 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Gang Ma</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Gang Ma:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-数学未按照原定计划完成</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,46 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学打卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语打卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托福作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优良完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡觉时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托福-阅读课（1-27）课堂测验80分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,14 +77,6 @@
   </si>
   <si>
     <t>托福-听力课（1-28）课时费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,26 +327,6 @@
   </si>
   <si>
     <t>每天家校联系手册清晰记录科目和每科所用时间，获得家长签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有记账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,7 +574,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,21 +589,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="36"/>
@@ -811,18 +687,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -832,19 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,155 +956,134 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1288,13 +1125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,8 +1440,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1616,11 +1454,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4745.2000000000007</v>
+        <v>4836.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1631,19 +1469,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1651,7 +1489,7 @@
         <v>43493</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>6897.2</v>
@@ -1667,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1675,7 +1513,7 @@
         <v>43493</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>-350</v>
@@ -1691,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,7 +1537,7 @@
         <v>43493</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -1716,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1724,7 +1562,7 @@
         <v>43493</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>-350</v>
@@ -1740,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1748,7 +1586,7 @@
         <v>43498</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>1300</v>
@@ -1765,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1773,7 +1611,7 @@
         <v>43500</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>700</v>
@@ -1789,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,7 +1635,7 @@
         <v>43520</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>-1200</v>
@@ -1814,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1822,7 +1660,7 @@
         <v>43520</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1844,7 +1682,7 @@
         <v>43521</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>-200</v>
@@ -1866,7 +1704,7 @@
         <v>43521</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>-60</v>
@@ -1888,7 +1726,7 @@
         <v>43522</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>-60</v>
@@ -1910,7 +1748,7 @@
         <v>43522</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>-200</v>
@@ -1932,7 +1770,7 @@
         <v>43523</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>-30</v>
@@ -1949,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1957,7 +1795,7 @@
         <v>43523</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>200</v>
@@ -1974,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1982,7 +1820,7 @@
         <v>43524</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -2004,7 +1842,7 @@
         <v>43524</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>-30</v>
@@ -2026,7 +1864,7 @@
         <v>43525</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C19">
         <v>-30</v>
@@ -2048,7 +1886,7 @@
         <v>43525</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C20">
         <v>-200</v>
@@ -2070,7 +1908,7 @@
         <v>43526</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>-30</v>
@@ -2087,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2095,7 +1933,7 @@
         <v>43526</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>-200</v>
@@ -2117,7 +1955,7 @@
         <v>43527</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>-200</v>
@@ -2135,12 +1973,12 @@
         <v>43528</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>-6</v>
       </c>
-      <c r="E24" s="50">
+      <c r="E24" s="43">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>-6</v>
       </c>
@@ -2153,12 +1991,12 @@
         <v>43528</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>50</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="43">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>50</v>
       </c>
@@ -2171,12 +2009,12 @@
         <v>43529</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>-60</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="43">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>-60</v>
       </c>
@@ -2189,12 +2027,12 @@
         <v>43530</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>-30</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="43">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
         <v>-30</v>
       </c>
@@ -2207,7 +2045,7 @@
         <v>43531</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C28">
         <v>-60</v>
@@ -2225,7 +2063,7 @@
         <v>43532</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>-30</v>
@@ -2247,7 +2085,7 @@
         <v>43534</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <f>-(350+90)</f>
@@ -2265,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2273,7 +2111,7 @@
         <v>43535</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>600</v>
@@ -2291,7 +2129,7 @@
         <v>43535</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>-60</v>
@@ -2309,7 +2147,7 @@
         <v>43536</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -2327,7 +2165,7 @@
         <v>43536</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>-500</v>
@@ -2340,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2348,7 +2186,7 @@
         <v>43536</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>-30</v>
@@ -2361,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2207,7 @@
         <v>43537</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>-500</v>
@@ -2382,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,7 +2228,7 @@
         <v>43537</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C37">
         <v>-60</v>
@@ -2408,7 +2246,7 @@
         <v>43538</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <v>-60</v>
@@ -2422,7 +2260,7 @@
         <v>-66</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2430,7 +2268,7 @@
         <v>43539</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>-30</v>
@@ -2444,7 +2282,7 @@
         <v>-33</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2452,7 +2290,7 @@
         <v>43541</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <v>-500</v>
@@ -2466,7 +2304,7 @@
         <v>-550</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2474,7 +2312,7 @@
         <v>43542</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>-60</v>
@@ -2484,7 +2322,7 @@
         <v>-60</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2492,17 +2330,17 @@
         <v>43543</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E42">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2516,269 +2354,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="B7:G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="7" max="8" width="9.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43493</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.41805555555555557</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.92083333333333339</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43494</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43495</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43496</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43497</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>43509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>43510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>43511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>43512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>43513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>43514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>43516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>43517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>43518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>43519</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H28"/>
@@ -2800,385 +2375,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="2:8" s="6" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="2:8" s="13" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D19" s="17">
+        <v>50</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="G19" s="17">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
+      <c r="D20" s="17">
+        <v>100</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="2:8" s="13" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="2:8" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
+      <c r="D21" s="17">
+        <v>500</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="D22" s="24">
+        <v>200</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="F22" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="24">
+      <c r="G22" s="24">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="24">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="D23" s="24">
+        <v>200</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="24">
+      <c r="F23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="24">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="30">
         <v>100</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="24">
-        <v>500</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="E24" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="F24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="G24" s="30">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="31">
-        <v>200</v>
-      </c>
-      <c r="E22" s="32" t="s">
+      <c r="B25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="C25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="31">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
+      <c r="D25" s="35">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="F25" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="G25" s="35">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="31">
-        <v>200</v>
-      </c>
-      <c r="E23" s="32" t="s">
+      <c r="C26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="D26" s="35">
+        <v>300</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="31">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="F26" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="G26" s="35">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="B27" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="37">
-        <v>100</v>
-      </c>
-      <c r="E24" s="38" t="s">
+      <c r="C27" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="37">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="42">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="42">
+      <c r="D27" s="40">
         <v>300</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="42">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="47">
-        <v>300</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,12 +2761,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3201,80 +2776,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>133</v>
+      <c r="A7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\github-ExcelProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#WORKSHOP\gitSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,10 @@
   <si>
     <t>2月24日起三周
 3月5日截止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,8 +1160,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G42" totalsRowShown="0">
-  <autoFilter ref="A2:G42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G43" totalsRowShown="0">
+  <autoFilter ref="A2:G43"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1438,30 +1442,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4836.2000000000007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4776.2000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43493</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43493</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43493</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43493</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43498</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43500</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43520</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43520</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43521</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43521</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43522</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43522</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43523</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43524</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43524</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43525</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43525</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43526</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43526</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43527</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>43528</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>43528</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43529</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>43530</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>43531</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>43532</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>43534</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>43535</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>43535</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>43536</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>43536</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>43536</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>43537</v>
       </c>
@@ -2223,7 +2227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>43537</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>43538</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>43539</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>43541</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>43542</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>43543</v>
       </c>
@@ -2340,6 +2344,24 @@
         <v>800</v>
       </c>
       <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>-60</v>
+      </c>
+      <c r="E43">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2362,19 +2384,19 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="52.25" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="51.73046875" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="52.265625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="44.65" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2384,7 +2406,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:8" s="6" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" s="6" customFormat="1" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2394,8 +2416,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2428,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>16</v>
@@ -2417,7 +2439,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>17</v>
@@ -2428,7 +2450,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>18</v>
@@ -2439,7 +2461,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>19</v>
@@ -2450,7 +2472,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2459,7 +2481,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2470,7 +2492,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
@@ -2483,7 +2505,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>23</v>
@@ -2494,7 +2516,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
@@ -2507,7 +2529,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>26</v>
@@ -2518,7 +2540,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
@@ -2529,8 +2551,8 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>28</v>
@@ -2543,7 +2565,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -2560,7 +2582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>32</v>
       </c>
@@ -2583,7 +2605,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
@@ -2604,7 +2626,7 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
         <v>32</v>
       </c>
@@ -2621,7 +2643,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2666,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26" t="s">
         <v>48</v>
       </c>
@@ -2667,7 +2689,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
         <v>53</v>
       </c>
@@ -2690,7 +2712,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="32" t="s">
         <v>58</v>
       </c>
@@ -2713,7 +2735,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
         <v>58</v>
       </c>
@@ -2736,7 +2758,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
         <v>67</v>
       </c>
@@ -2753,7 +2775,7 @@
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2769,13 +2791,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="44" t="s">
         <v>102</v>
       </c>
@@ -2786,7 +2808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A2" s="47" t="s">
         <v>105</v>
       </c>
@@ -2797,7 +2819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="152.65" x14ac:dyDescent="0.4">
       <c r="A3" s="47" t="s">
         <v>108</v>
       </c>
@@ -2808,7 +2830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A4" s="56" t="s">
         <v>111</v>
       </c>
@@ -2819,7 +2841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A5" s="47" t="s">
         <v>113</v>
       </c>
@@ -2830,7 +2852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A6" s="53" t="s">
         <v>118</v>
       </c>
@@ -2841,7 +2863,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="143.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="139.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="50" t="s">
         <v>116</v>
       </c>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,14 @@
   </si>
   <si>
     <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成周计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,8 +1168,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G43" totalsRowShown="0">
-  <autoFilter ref="A2:G43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G47" totalsRowShown="0">
+  <autoFilter ref="A2:G47"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1442,11 +1450,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1462,7 +1470,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4776.2000000000007</v>
+        <v>4153.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2362,6 +2370,82 @@
         <v>-60</v>
       </c>
       <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44">
+        <v>-60</v>
+      </c>
+      <c r="E44">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43546</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>-30</v>
+      </c>
+      <c r="D45">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
+      <c r="E45">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-33</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <v>-30</v>
+      </c>
+      <c r="E46">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47">
+        <v>-500</v>
+      </c>
+      <c r="E47">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-500</v>
+      </c>
+      <c r="F47" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +579,22 @@
   </si>
   <si>
     <t>未完成周计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学题做对7道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueenCD专辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G47" totalsRowShown="0">
-  <autoFilter ref="A2:G47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G52" totalsRowShown="0">
+  <autoFilter ref="A2:G52"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1450,11 +1466,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44:F47"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1470,7 +1486,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4153.2000000000007</v>
+        <v>4668.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2446,6 +2462,96 @@
         <v>-500</v>
       </c>
       <c r="F47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48">
+        <v>-60</v>
+      </c>
+      <c r="E48">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49">
+        <v>700</v>
+      </c>
+      <c r="E49">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>700</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50">
+        <v>-30</v>
+      </c>
+      <c r="E50">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51">
+        <v>-60</v>
+      </c>
+      <c r="E51">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>43551</v>
+      </c>
+      <c r="B52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52">
+        <v>-35</v>
+      </c>
+      <c r="E52">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-35</v>
+      </c>
+      <c r="F52" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -1469,14 +1469,14 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,22 @@
   </si>
   <si>
     <t>QueenCD专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上数学家教课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上托福指导课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上托福正课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学作业，对12道错1道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,8 +1200,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G52" totalsRowShown="0">
-  <autoFilter ref="A2:G52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G58" totalsRowShown="0">
+  <autoFilter ref="A2:G58"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1466,11 +1482,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2553,6 +2569,122 @@
       </c>
       <c r="F52" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>43552</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <v>-60</v>
+      </c>
+      <c r="D53">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-6</v>
+      </c>
+      <c r="E53">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-66</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>43553</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54">
+        <v>-30</v>
+      </c>
+      <c r="D54">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-3</v>
+      </c>
+      <c r="E54">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-33</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55">
+        <v>-350</v>
+      </c>
+      <c r="E55">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-350</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56">
+        <v>-45</v>
+      </c>
+      <c r="E56">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-45</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57">
+        <v>-400</v>
+      </c>
+      <c r="E57">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-400</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58">
+        <v>200</v>
+      </c>
+      <c r="E58">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>200</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +611,14 @@
   </si>
   <si>
     <t>数学作业，对12道错1道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学作业，对4道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G58" totalsRowShown="0">
-  <autoFilter ref="A2:G58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G60" totalsRowShown="0">
+  <autoFilter ref="A2:G60"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1482,11 +1490,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1502,7 +1510,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4668.2000000000007</v>
+        <v>4404.2000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2590,7 +2598,7 @@
         <v>-66</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2612,7 +2620,7 @@
         <v>-33</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -2630,7 +2638,7 @@
         <v>-350</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -2648,7 +2656,7 @@
         <v>-45</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -2666,7 +2674,7 @@
         <v>-400</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -2684,7 +2692,43 @@
         <v>200</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59">
+        <v>400</v>
+      </c>
+      <c r="E59">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>400</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>30</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -16,7 +16,7 @@
     <sheet name="科目" sheetId="3" r:id="rId2"/>
     <sheet name="20190224" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,10 @@
   </si>
   <si>
     <t>数学作业，对4道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1208,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G60" totalsRowShown="0">
-  <autoFilter ref="A2:G60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G67" totalsRowShown="0">
+  <autoFilter ref="A2:G67"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1490,11 +1494,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1510,7 +1514,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4404.2000000000007</v>
+        <v>2944.7000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2721,13 +2725,151 @@
         <v>134</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="E60">
         <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>-60</v>
+      </c>
+      <c r="E61">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>43559</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62">
+        <v>-400</v>
+      </c>
+      <c r="D62">
+        <f>表1[[#This Row],[原金额]]*20%</f>
+        <v>-80</v>
+      </c>
+      <c r="E62">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-480</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63">
+        <v>-350</v>
+      </c>
+      <c r="D63">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-35</v>
+      </c>
+      <c r="E63">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-385</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>-45</v>
+      </c>
+      <c r="D64">
+        <f>表1[[#This Row],[原金额]]*10%</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E64">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-49.5</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65">
+        <v>-350</v>
+      </c>
+      <c r="E65">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-350</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66">
+        <v>-45</v>
+      </c>
+      <c r="E66">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-45</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67">
+        <v>-30</v>
+      </c>
+      <c r="E67">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F67" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1212,8 +1212,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G67" totalsRowShown="0">
-  <autoFilter ref="A2:G67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G69" totalsRowShown="0">
+  <autoFilter ref="A2:G69"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1494,11 +1494,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>2944.7000000000007</v>
+        <v>2824.7000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2870,6 +2870,42 @@
         <v>-30</v>
       </c>
       <c r="F67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68">
+        <v>-60</v>
+      </c>
+      <c r="E68">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>-60</v>
+      </c>
+      <c r="E69">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-60</v>
+      </c>
+      <c r="F69" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,14 @@
   </si>
   <si>
     <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学作业，净做对3道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学作业，净做对17道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1212,8 +1220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G69" totalsRowShown="0">
-  <autoFilter ref="A2:G69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G72" totalsRowShown="0">
+  <autoFilter ref="A2:G72"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1494,11 +1502,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1514,7 +1522,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>2824.7000000000007</v>
+        <v>4794.7000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2906,6 +2914,60 @@
         <v>-60</v>
       </c>
       <c r="F69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>-30</v>
+      </c>
+      <c r="E70">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71">
+        <v>300</v>
+      </c>
+      <c r="E71">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>300</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72">
+        <v>1700</v>
+      </c>
+      <c r="E72">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>1700</v>
+      </c>
+      <c r="F72" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,8 +1220,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G72" totalsRowShown="0">
-  <autoFilter ref="A2:G72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G74" totalsRowShown="0">
+  <autoFilter ref="A2:G74"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1502,11 +1502,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4794.7000000000007</v>
+        <v>4734.7000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -2968,6 +2968,42 @@
         <v>1700</v>
       </c>
       <c r="F72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>-30</v>
+      </c>
+      <c r="E73">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>-30</v>
+      </c>
+      <c r="E74">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-30</v>
+      </c>
+      <c r="F74" t="b">
         <v>1</v>
       </c>
     </row>

--- a/马佳樱小账本.xlsx
+++ b/马佳樱小账本.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,14 @@
   </si>
   <si>
     <t>数学作业，净做对17道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支取200元现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托福课（正课+指导课）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,8 +1228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G74" totalsRowShown="0">
-  <autoFilter ref="A2:G74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:G76" totalsRowShown="0">
+  <autoFilter ref="A2:G76"/>
   <sortState ref="A3:G37">
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -1502,11 +1510,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1522,7 +1530,7 @@
       </c>
       <c r="B1">
         <f>SUMIF(表1[妞记账],TRUE,表1[金额])</f>
-        <v>4734.7000000000007</v>
+        <v>4139.7000000000007</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3004,6 +3012,42 @@
         <v>-30</v>
       </c>
       <c r="F74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75">
+        <v>-200</v>
+      </c>
+      <c r="E75">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-200</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76">
+        <v>-395</v>
+      </c>
+      <c r="E76">
+        <f>SUM(表1[[#This Row],[原金额]:[处罚]])</f>
+        <v>-395</v>
+      </c>
+      <c r="F76" t="b">
         <v>1</v>
       </c>
     </row>
